--- a/run/output/iecorrect/iecorrect-precision.xlsx
+++ b/run/output/iecorrect/iecorrect-precision.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb501238\Documents\GitHub\iefieldkit\run\output\iecorrect\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C852D59D-C8F8-4379-BD53-42488EEF9B4E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F507997C-31EC-4528-8EA1-50ADD9F914C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="numeric" sheetId="2" r:id="rId1"/>
@@ -22,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
-    <t>idvalue</t>
-  </si>
-  <si>
     <t>valuecurrent</t>
   </si>
   <si>
@@ -41,6 +38,9 @@
   </si>
   <si>
     <t>gear_ratio</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
@@ -398,7 +398,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -408,27 +408,27 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>3.58</v>
@@ -439,7 +439,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>2.5299999999999998</v>

--- a/run/output/iecorrect/iecorrect-precision.xlsx
+++ b/run/output/iecorrect/iecorrect-precision.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb501238\Documents\GitHub\iefieldkit\run\output\iecorrect\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F507997C-31EC-4528-8EA1-50ADD9F914C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED337FF-0CD0-481B-9F81-F49357758ED1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="numeric" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>valuecurrent</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
 </sst>
 </file>
@@ -398,7 +401,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -430,6 +433,9 @@
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
       <c r="C2">
         <v>3.58</v>
       </c>
@@ -440,6 +446,9 @@
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
       </c>
       <c r="C3">
         <v>2.5299999999999998</v>

--- a/run/output/iecorrect/iecorrect-precision.xlsx
+++ b/run/output/iecorrect/iecorrect-precision.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,17 +10,17 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED337FF-0CD0-481B-9F81-F49357758ED1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="numeric" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="114" uniqueCount="16">
   <si>
     <t>valuecurrent</t>
   </si>
@@ -44,12 +44,36 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t>3.58</t>
+  </si>
+  <si>
+    <t>2.53</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>n_changes</t>
+  </si>
+  <si>
+    <t>date_last_changed</t>
+  </si>
+  <si>
+    <t>11 Dec 2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -69,7 +93,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -77,13 +101,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -102,7 +128,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -253,7 +279,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -277,9 +303,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -303,7 +329,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -338,7 +364,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="false">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -356,7 +382,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -381,7 +407,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -397,19 +423,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -428,33 +454,63 @@
       <c r="F1" t="s">
         <v>3</v>
       </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
+    <row r="2">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2">
-        <v>3.58</v>
-      </c>
-      <c r="D2">
-        <v>150</v>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="2">
+        <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
+    <row r="3">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3">
-        <v>2.5299999999999998</v>
-      </c>
-      <c r="D3">
-        <v>60</v>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/run/output/iecorrect/iecorrect-precision.xlsx
+++ b/run/output/iecorrect/iecorrect-precision.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="114" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="180" uniqueCount="17">
   <si>
     <t>valuecurrent</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>11 Dec 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9 Jan 2023</t>
   </si>
 </sst>
 </file>
@@ -481,7 +484,7 @@
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" s="2">
         <v>2</v>
@@ -507,7 +510,7 @@
         <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H3" s="2">
         <v>1</v>
